--- a/biology/Médecine/Yahia_Guidoum/Yahia_Guidoum.xlsx
+++ b/biology/Médecine/Yahia_Guidoum/Yahia_Guidoum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Yahia Guidoum (en arabe : يحيى قيدوم), né en 1941 à Constantine et mort le 3 mars 2020 à Alger, est un chirurgien et homme politique algérien.
@@ -512,15 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il est Docteur en chirurgie orthopédique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est Docteur en chirurgie orthopédique.
 Il était médecin et professeur qui a occupé plusieurs postes de haut niveau dans le domaine de la santé et de la politique, a occupé le poste de ministre de la Santé et de la Population, puis ministre de la Jeunesse et des Sports. Il a continué son travail de chirurgien même pendant qu'il occupait le poste de ministre.
-Carrière
-De 1965 à 2008 médecin dans les hôpitaux de Sétif, Constantine et Alger ;
-ministre de la Santé et de la Population du 15 avril 1994 au 23 décembre 1999[1] ;
-ministre de la Jeunesse et des Sports du 1er mai 2005 au 4 juin 2007 ;
-député au parlement du parti Rassemblement national démocratique de 2007 à 2020.</t>
+</t>
         </is>
       </c>
     </row>
@@ -545,12 +555,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De 1965 à 2008 médecin dans les hôpitaux de Sétif, Constantine et Alger ;
+ministre de la Santé et de la Population du 15 avril 1994 au 23 décembre 1999 ;
+ministre de la Jeunesse et des Sports du 1er mai 2005 au 4 juin 2007 ;
+député au parlement du parti Rassemblement national démocratique de 2007 à 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yahia_Guidoum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yahia_Guidoum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est décédé le mardi 3 mars 2020, à Alger, à l'âge de 79 ans, des suites d'une maladie en phase terminale[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est décédé le mardi 3 mars 2020, à Alger, à l'âge de 79 ans, des suites d'une maladie en phase terminale,.
 </t>
         </is>
       </c>
